--- a/Project/Phase 1/Sprint 1/Sprint Backlog.xlsx
+++ b/Project/Phase 1/Sprint 1/Sprint Backlog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\GanttProject\Project\Phase 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3BC61B-F6F2-4A72-A24D-863E332EB448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AEB34A-667E-4B78-9992-511AA1DACE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Lists" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -78,13 +79,22 @@
   </si>
   <si>
     <t>Reviewing</t>
+  </si>
+  <si>
+    <t>Cláudia Santos</t>
+  </si>
+  <si>
+    <t>Owner Options</t>
+  </si>
+  <si>
+    <t>Status Options</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +110,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,24 +138,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -346,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -381,6 +381,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,27 +399,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,6 +427,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F480B97-A406-4C71-8059-A8BF5F5FEDCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4587240" y="662940"/>
+          <a:ext cx="1897380" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100"/>
+            <a:t>These are lists to assist in the Select Drop-down of the backlog.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,7 +807,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,12 +829,12 @@
     </row>
     <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -792,13 +865,11 @@
       <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="L4" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -812,13 +883,11 @@
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="L5" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -832,13 +901,11 @@
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="L6" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -852,13 +919,11 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="L7" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -872,10 +937,11 @@
       <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -889,7 +955,7 @@
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1"/>
@@ -906,7 +972,7 @@
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1"/>
@@ -923,7 +989,7 @@
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1"/>
@@ -940,7 +1006,7 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1"/>
@@ -957,7 +1023,7 @@
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1"/>
@@ -974,7 +1040,7 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1"/>
@@ -991,7 +1057,7 @@
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="1"/>
@@ -1008,7 +1074,7 @@
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1"/>
@@ -1025,7 +1091,7 @@
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1"/>
@@ -1042,7 +1108,7 @@
       <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="1"/>
@@ -1058,12 +1124,96 @@
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E18" xr:uid="{6BB1C0DD-04ED-4466-B296-7522DFB28B5F}">
-      <formula1>$L$4:$L$7</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6BB1C0DD-04ED-4466-B296-7522DFB28B5F}">
+          <x14:formula1>
+            <xm:f>Lists!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4:E18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9362B939-A2B5-49F3-941C-06364806B1EE}">
+          <x14:formula1>
+            <xm:f>Lists!$D$2:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4:D18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D5E89-6032-4802-95D9-CFCB4DD74F91}">
+  <dimension ref="B1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>